--- a/TableData/character_stats.xlsx
+++ b/TableData/character_stats.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>LvL</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>CRITICAL_DAMAGE</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
 </sst>
 </file>
@@ -324,988 +330,1017 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.001</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.001</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.01</v>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B3" s="1">
-        <v>110.0</v>
+        <v>100.0</v>
       </c>
       <c r="C3" s="1">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="D3" s="1">
-        <v>110.0</v>
+        <v>100.0</v>
       </c>
       <c r="E3" s="1">
-        <v>55.0</v>
+        <v>50.0</v>
       </c>
       <c r="F3" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="G3" s="1">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H3" s="1">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I3" s="1">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B4" s="1">
-        <v>120.0</v>
+        <v>110.0</v>
       </c>
       <c r="C4" s="1">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="D4" s="1">
-        <v>120.0</v>
+        <v>110.0</v>
       </c>
       <c r="E4" s="1">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
       <c r="F4" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G4" s="1">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="H4" s="1">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="I4" s="1">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B5" s="1">
-        <v>130.0</v>
+        <v>120.0</v>
       </c>
       <c r="C5" s="1">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="D5" s="1">
-        <v>130.0</v>
+        <v>120.0</v>
       </c>
       <c r="E5" s="1">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
       <c r="F5" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G5" s="1">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="H5" s="1">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="I5" s="1">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B6" s="1">
-        <v>140.0</v>
+        <v>130.0</v>
       </c>
       <c r="C6" s="1">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="D6" s="1">
-        <v>140.0</v>
+        <v>130.0</v>
       </c>
       <c r="E6" s="1">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
       <c r="F6" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="G6" s="1">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="H6" s="1">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="I6" s="1">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B7" s="1">
-        <v>150.0</v>
+        <v>140.0</v>
       </c>
       <c r="C7" s="1">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
       <c r="D7" s="1">
-        <v>150.0</v>
+        <v>140.0</v>
       </c>
       <c r="E7" s="1">
-        <v>75.0</v>
+        <v>70.0</v>
       </c>
       <c r="F7" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="G7" s="1">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="H7" s="1">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="I7" s="1">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B8" s="1">
-        <v>160.0</v>
+        <v>150.0</v>
       </c>
       <c r="C8" s="1">
-        <v>40.0</v>
+        <v>35.0</v>
       </c>
       <c r="D8" s="1">
-        <v>160.0</v>
+        <v>150.0</v>
       </c>
       <c r="E8" s="1">
-        <v>80.0</v>
+        <v>75.0</v>
       </c>
       <c r="F8" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="G8" s="1">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="H8" s="1">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="I8" s="1">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B9" s="1">
-        <v>170.0</v>
+        <v>160.0</v>
       </c>
       <c r="C9" s="1">
-        <v>45.0</v>
+        <v>40.0</v>
       </c>
       <c r="D9" s="1">
-        <v>170.0</v>
+        <v>160.0</v>
       </c>
       <c r="E9" s="1">
-        <v>85.0</v>
+        <v>80.0</v>
       </c>
       <c r="F9" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="G9" s="1">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="H9" s="1">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="I9" s="1">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B10" s="1">
-        <v>180.0</v>
+        <v>170.0</v>
       </c>
       <c r="C10" s="1">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D10" s="1">
-        <v>180.0</v>
+        <v>170.0</v>
       </c>
       <c r="E10" s="1">
-        <v>90.0</v>
+        <v>85.0</v>
       </c>
       <c r="F10" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="G10" s="1">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="H10" s="1">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="I10" s="1">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B11" s="1">
-        <v>190.0</v>
+        <v>180.0</v>
       </c>
       <c r="C11" s="1">
-        <v>55.0</v>
+        <v>50.0</v>
       </c>
       <c r="D11" s="1">
-        <v>190.0</v>
+        <v>180.0</v>
       </c>
       <c r="E11" s="1">
-        <v>95.0</v>
+        <v>90.0</v>
       </c>
       <c r="F11" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="G11" s="1">
-        <v>0.01</v>
+        <v>0.009</v>
       </c>
       <c r="H11" s="1">
-        <v>0.01</v>
+        <v>0.009</v>
       </c>
       <c r="I11" s="1">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B12" s="1">
-        <v>200.0</v>
+        <v>190.0</v>
       </c>
       <c r="C12" s="1">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
       <c r="D12" s="1">
-        <v>200.0</v>
+        <v>190.0</v>
       </c>
       <c r="E12" s="1">
-        <v>100.0</v>
+        <v>95.0</v>
       </c>
       <c r="F12" s="1">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="G12" s="1">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="H12" s="1">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="I12" s="1">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="B13" s="1">
-        <v>210.0</v>
+        <v>200.0</v>
       </c>
       <c r="C13" s="1">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
       <c r="D13" s="1">
-        <v>210.0</v>
+        <v>200.0</v>
       </c>
       <c r="E13" s="1">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
       <c r="F13" s="1">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="G13" s="1">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="H13" s="1">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="I13" s="1">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B14" s="1">
-        <v>220.0</v>
+        <v>210.0</v>
       </c>
       <c r="C14" s="1">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
       <c r="D14" s="1">
-        <v>220.0</v>
+        <v>210.0</v>
       </c>
       <c r="E14" s="1">
-        <v>110.0</v>
+        <v>105.0</v>
       </c>
       <c r="F14" s="1">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="G14" s="1">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="H14" s="1">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="I14" s="1">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B15" s="1">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
       <c r="C15" s="1">
-        <v>75.0</v>
+        <v>70.0</v>
       </c>
       <c r="D15" s="1">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
       <c r="E15" s="1">
-        <v>115.0</v>
+        <v>110.0</v>
       </c>
       <c r="F15" s="1">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="G15" s="1">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="H15" s="1">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="I15" s="1">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B16" s="1">
-        <v>240.0</v>
+        <v>230.0</v>
       </c>
       <c r="C16" s="1">
-        <v>80.0</v>
+        <v>75.0</v>
       </c>
       <c r="D16" s="1">
-        <v>240.0</v>
+        <v>230.0</v>
       </c>
       <c r="E16" s="1">
-        <v>120.0</v>
+        <v>115.0</v>
       </c>
       <c r="F16" s="1">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="G16" s="1">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="H16" s="1">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="I16" s="1">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="B17" s="1">
-        <v>250.0</v>
+        <v>240.0</v>
       </c>
       <c r="C17" s="1">
-        <v>85.0</v>
+        <v>80.0</v>
       </c>
       <c r="D17" s="1">
-        <v>250.0</v>
+        <v>240.0</v>
       </c>
       <c r="E17" s="1">
-        <v>125.0</v>
+        <v>120.0</v>
       </c>
       <c r="F17" s="1">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="G17" s="1">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="H17" s="1">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="I17" s="1">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="B18" s="1">
-        <v>260.0</v>
+        <v>250.0</v>
       </c>
       <c r="C18" s="1">
-        <v>90.0</v>
+        <v>85.0</v>
       </c>
       <c r="D18" s="1">
-        <v>260.0</v>
+        <v>250.0</v>
       </c>
       <c r="E18" s="1">
-        <v>130.0</v>
+        <v>125.0</v>
       </c>
       <c r="F18" s="1">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="G18" s="1">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="H18" s="1">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="I18" s="1">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="B19" s="1">
-        <v>270.0</v>
+        <v>260.0</v>
       </c>
       <c r="C19" s="1">
-        <v>95.0</v>
+        <v>90.0</v>
       </c>
       <c r="D19" s="1">
-        <v>270.0</v>
+        <v>260.0</v>
       </c>
       <c r="E19" s="1">
-        <v>135.0</v>
+        <v>130.0</v>
       </c>
       <c r="F19" s="1">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="G19" s="1">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="H19" s="1">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="I19" s="1">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="B20" s="1">
-        <v>280.0</v>
+        <v>270.0</v>
       </c>
       <c r="C20" s="1">
-        <v>100.0</v>
+        <v>95.0</v>
       </c>
       <c r="D20" s="1">
-        <v>280.0</v>
+        <v>270.0</v>
       </c>
       <c r="E20" s="1">
-        <v>140.0</v>
+        <v>135.0</v>
       </c>
       <c r="F20" s="1">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="G20" s="1">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="H20" s="1">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="I20" s="1">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="B21" s="1">
-        <v>290.0</v>
+        <v>280.0</v>
       </c>
       <c r="C21" s="1">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
       <c r="D21" s="1">
-        <v>290.0</v>
+        <v>280.0</v>
       </c>
       <c r="E21" s="1">
-        <v>145.0</v>
+        <v>140.0</v>
       </c>
       <c r="F21" s="1">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="G21" s="1">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="H21" s="1">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="I21" s="1">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="B22" s="1">
-        <v>300.0</v>
+        <v>290.0</v>
       </c>
       <c r="C22" s="1">
-        <v>110.0</v>
+        <v>105.0</v>
       </c>
       <c r="D22" s="1">
-        <v>300.0</v>
+        <v>290.0</v>
       </c>
       <c r="E22" s="1">
-        <v>150.0</v>
+        <v>145.0</v>
       </c>
       <c r="F22" s="1">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="G22" s="1">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="H22" s="1">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="I22" s="1">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B23" s="1">
-        <v>310.0</v>
+        <v>300.0</v>
       </c>
       <c r="C23" s="1">
-        <v>115.0</v>
+        <v>110.0</v>
       </c>
       <c r="D23" s="1">
-        <v>310.0</v>
+        <v>300.0</v>
       </c>
       <c r="E23" s="1">
-        <v>155.0</v>
+        <v>150.0</v>
       </c>
       <c r="F23" s="1">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="G23" s="1">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="H23" s="1">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="I23" s="1">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="B24" s="1">
-        <v>320.0</v>
+        <v>310.0</v>
       </c>
       <c r="C24" s="1">
-        <v>120.0</v>
+        <v>115.0</v>
       </c>
       <c r="D24" s="1">
-        <v>320.0</v>
+        <v>310.0</v>
       </c>
       <c r="E24" s="1">
-        <v>160.0</v>
+        <v>155.0</v>
       </c>
       <c r="F24" s="1">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="G24" s="1">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="H24" s="1">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="I24" s="1">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="B25" s="1">
-        <v>330.0</v>
+        <v>320.0</v>
       </c>
       <c r="C25" s="1">
-        <v>125.0</v>
+        <v>120.0</v>
       </c>
       <c r="D25" s="1">
-        <v>330.0</v>
+        <v>320.0</v>
       </c>
       <c r="E25" s="1">
-        <v>165.0</v>
+        <v>160.0</v>
       </c>
       <c r="F25" s="1">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="G25" s="1">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="H25" s="1">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="I25" s="1">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="B26" s="1">
-        <v>340.0</v>
+        <v>330.0</v>
       </c>
       <c r="C26" s="1">
-        <v>130.0</v>
+        <v>125.0</v>
       </c>
       <c r="D26" s="1">
-        <v>340.0</v>
+        <v>330.0</v>
       </c>
       <c r="E26" s="1">
-        <v>170.0</v>
+        <v>165.0</v>
       </c>
       <c r="F26" s="1">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="G26" s="1">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="H26" s="1">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="I26" s="1">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="B27" s="1">
-        <v>350.0</v>
+        <v>340.0</v>
       </c>
       <c r="C27" s="1">
-        <v>135.0</v>
+        <v>130.0</v>
       </c>
       <c r="D27" s="1">
-        <v>350.0</v>
+        <v>340.0</v>
       </c>
       <c r="E27" s="1">
-        <v>175.0</v>
+        <v>170.0</v>
       </c>
       <c r="F27" s="1">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="G27" s="1">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="H27" s="1">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="I27" s="1">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="B28" s="1">
-        <v>360.0</v>
+        <v>350.0</v>
       </c>
       <c r="C28" s="1">
-        <v>140.0</v>
+        <v>135.0</v>
       </c>
       <c r="D28" s="1">
-        <v>360.0</v>
+        <v>350.0</v>
       </c>
       <c r="E28" s="1">
-        <v>180.0</v>
+        <v>175.0</v>
       </c>
       <c r="F28" s="1">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="G28" s="1">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="H28" s="1">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="I28" s="1">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="B29" s="1">
-        <v>370.0</v>
+        <v>360.0</v>
       </c>
       <c r="C29" s="1">
-        <v>145.0</v>
+        <v>140.0</v>
       </c>
       <c r="D29" s="1">
-        <v>370.0</v>
+        <v>360.0</v>
       </c>
       <c r="E29" s="1">
-        <v>185.0</v>
+        <v>180.0</v>
       </c>
       <c r="F29" s="1">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="G29" s="1">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="H29" s="1">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="I29" s="1">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="B30" s="1">
-        <v>380.0</v>
+        <v>370.0</v>
       </c>
       <c r="C30" s="1">
-        <v>150.0</v>
+        <v>145.0</v>
       </c>
       <c r="D30" s="1">
-        <v>380.0</v>
+        <v>370.0</v>
       </c>
       <c r="E30" s="1">
-        <v>190.0</v>
+        <v>185.0</v>
       </c>
       <c r="F30" s="1">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="G30" s="1">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="H30" s="1">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="I30" s="1">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="B31" s="1">
-        <v>390.0</v>
+        <v>380.0</v>
       </c>
       <c r="C31" s="1">
-        <v>155.0</v>
+        <v>150.0</v>
       </c>
       <c r="D31" s="1">
-        <v>390.0</v>
+        <v>380.0</v>
       </c>
       <c r="E31" s="1">
-        <v>195.0</v>
+        <v>190.0</v>
       </c>
       <c r="F31" s="1">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="G31" s="1">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="H31" s="1">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="I31" s="1">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="B32" s="1">
-        <v>400.0</v>
+        <v>390.0</v>
       </c>
       <c r="C32" s="1">
-        <v>160.0</v>
+        <v>155.0</v>
       </c>
       <c r="D32" s="1">
-        <v>400.0</v>
+        <v>390.0</v>
       </c>
       <c r="E32" s="1">
-        <v>200.0</v>
+        <v>195.0</v>
       </c>
       <c r="F32" s="1">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="G32" s="1">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="H32" s="1">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="I32" s="1">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="B33" s="1">
-        <v>410.0</v>
+        <v>400.0</v>
       </c>
       <c r="C33" s="1">
-        <v>165.0</v>
+        <v>160.0</v>
       </c>
       <c r="D33" s="1">
-        <v>410.0</v>
+        <v>400.0</v>
       </c>
       <c r="E33" s="1">
-        <v>205.0</v>
+        <v>200.0</v>
       </c>
       <c r="F33" s="1">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="G33" s="1">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="H33" s="1">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="I33" s="1">
-        <v>0.041</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="B34" s="1">
-        <v>420.0</v>
+        <v>410.0</v>
       </c>
       <c r="C34" s="1">
-        <v>170.0</v>
+        <v>165.0</v>
       </c>
       <c r="D34" s="1">
-        <v>420.0</v>
+        <v>410.0</v>
       </c>
       <c r="E34" s="1">
-        <v>210.0</v>
+        <v>205.0</v>
       </c>
       <c r="F34" s="1">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="G34" s="1">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="H34" s="1">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="I34" s="1">
-        <v>0.042</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>420.0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>170.0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>420.0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>210.0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.033</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.033</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
         <v>34.0</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B36" s="1">
         <v>430.0</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C36" s="1">
         <v>175.0</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D36" s="1">
         <v>430.0</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E36" s="1">
         <v>215.0</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F36" s="1">
         <v>43.0</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G36" s="1">
         <v>0.034</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H36" s="1">
         <v>0.034</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I36" s="1">
         <v>0.043</v>
       </c>
     </row>
